--- a/data/output_data3.xlsx
+++ b/data/output_data3.xlsx
@@ -64,7 +64,7 @@
     <t>Expected Utility: 4.5159397711796165</t>
   </si>
   <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -72,11 +72,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -88,15 +88,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.4856186251711018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFER self Foremz ((Electronics 1)) EU: -0.2319948032905874</t>
+(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.4856186251711018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFER self Foremz (Electronics 1)) EU: -0.2319948032905874</t>
   </si>
 </sst>
 </file>

--- a/data/output_data3.xlsx
+++ b/data/output_data3.xlsx
@@ -55,13 +55,13 @@
     <t>Expected Utility: 4.930124353540067</t>
   </si>
   <si>
-    <t>Expected Utility: 4.728236699289945</t>
+    <t>Expected Utility: 4.686632496391602</t>
   </si>
   <si>
     <t>Expected Utility: 4.6822532408439645</t>
   </si>
   <si>
-    <t>Expected Utility: 4.5159397711796165</t>
+    <t>Expected Utility: 4.474335568275383</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>

--- a/data/output_data3.xlsx
+++ b/data/output_data3.xlsx
@@ -14,89 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
-  <si>
-    <t>Expected Utility of Schedule</t>
-  </si>
-  <si>
-    <t>Depth 1</t>
-  </si>
-  <si>
-    <t>Depth 2</t>
-  </si>
-  <si>
-    <t>Depth 3</t>
-  </si>
-  <si>
-    <t>Depth 4</t>
-  </si>
-  <si>
-    <t>Depth 5</t>
-  </si>
-  <si>
-    <t>Schedule 1</t>
-  </si>
-  <si>
-    <t>Schedule 2</t>
-  </si>
-  <si>
-    <t>Schedule 3</t>
-  </si>
-  <si>
-    <t>Schedule 4</t>
-  </si>
-  <si>
-    <t>Schedule 5</t>
-  </si>
-  <si>
-    <t>Expected Utility: 5.379650318210522</t>
-  </si>
-  <si>
-    <t>Expected Utility: 4.930124353540067</t>
-  </si>
-  <si>
-    <t>Expected Utility: 4.686632496391602</t>
-  </si>
-  <si>
-    <t>Expected Utility: 4.6822532408439645</t>
-  </si>
-  <si>
-    <t>Expected Utility: 4.474335568275383</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Action Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #1: self: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #1: Brobdingnag: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #1: Erewhon: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #1: Foremz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #2: self: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #2: Brobdingnag: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #2: Erewhon: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #2: Foremz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #3: self: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #3: Brobdingnag: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #3: Erewhon: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move #3: Foremz: </t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
   </si>
   <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.16694641783498576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.21177845219545496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.23774751247499998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.4856186251711018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFER self Foremz (Electronics 1)) EU: -0.2319948032905874</t>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.0</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: 0.0</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.375</t>
+  </si>
+  <si>
+    <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.41642090683901695</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.4084836743893149</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.39016485473646706</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.4298048662079754</t>
+  </si>
+  <si>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.41350836172445127</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.4106281234407648</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: -0.4104131582671255</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Foremz (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.39016485473646706</t>
   </si>
 </sst>
 </file>
@@ -454,144 +446,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/output_data3.xlsx
+++ b/data/output_data3.xlsx
@@ -58,37 +58,37 @@
     <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
   </si>
   <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.0</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.375</t>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.2204656796309772</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: 0.18562499999999998</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.36262500000000025</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.41642090683901695</t>
   </si>
   <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.4084836743893149</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.39016485473646706</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.4298048662079754</t>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3716772948214735</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3031754196877489</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.4228555479625649</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.41350836172445127</t>
   </si>
   <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.4106281234407648</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: -0.4104131582671255</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Foremz (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.39016485473646706</t>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3777510434098401</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: -0.3771540432737958</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Foremz (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3031754196877489</t>
   </si>
 </sst>
 </file>

--- a/data/output_data3.xlsx
+++ b/data/output_data3.xlsx
@@ -55,40 +55,40 @@
     <t xml:space="preserve">Move #3: Foremz: </t>
   </si>
   <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.2204656796309772</t>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376973</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.2204656796309895</t>
   </si>
   <si>
     <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: 0.18562499999999998</t>
   </si>
   <si>
-    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.36262500000000025</t>
-  </si>
-  <si>
-    <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.41642090683901695</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3716772948214735</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3031754196877489</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.4228555479625649</t>
-  </si>
-  <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.41350836172445127</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3777510434098401</t>
+    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.3626250000000007</t>
+  </si>
+  <si>
+    <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.41642090683901606</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.37167729482147943</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.30317541968774714</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.42285554796256164</t>
+  </si>
+  <si>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.4135083617244515</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3777510434098383</t>
   </si>
   <si>
     <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: -0.3771540432737958</t>
   </si>
   <si>
-    <t>(TRANSFORM Foremz (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3031754196877489</t>
+    <t>(TRANSFORM Foremz (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.30317541968774714</t>
   </si>
 </sst>
 </file>

--- a/data/output_data3.xlsx
+++ b/data/output_data3.xlsx
@@ -14,81 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Action Taken</t>
   </si>
   <si>
-    <t xml:space="preserve">Move #1: self: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #1: Brobdingnag: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #1: Erewhon: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #1: Foremz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #2: self: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #2: Brobdingnag: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #2: Erewhon: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #2: Foremz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #3: self: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #3: Brobdingnag: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #3: Erewhon: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move #3: Foremz: </t>
-  </si>
-  <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376973</t>
+    <t xml:space="preserve">Turn #1: Brobdingnag: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #1: Erewhon: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #1: Foremz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #1: hello: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #2: Brobdingnag: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #2: Erewhon: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #2: Foremz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #2: hello: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #3: Brobdingnag: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #3: Erewhon: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #3: Foremz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn #3: hello: </t>
   </si>
   <si>
     <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.2204656796309895</t>
   </si>
   <si>
-    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: 0.18562499999999998</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.3626250000000007</t>
-  </si>
-  <si>
-    <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.41642090683901606</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.37167729482147943</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.30317541968774714</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Foremz (Housing 1)) EU: -0.42285554796256164</t>
-  </si>
-  <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.4135083617244515</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.3777510434098383</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag Erewhon (Housing 1)) EU: -0.3771540432737958</t>
-  </si>
-  <si>
-    <t>(TRANSFORM Foremz (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.30317541968774714</t>
+    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.12553455250623868</t>
+  </si>
+  <si>
+    <t>(PASSES Foremz )</t>
+  </si>
+  <si>
+    <t>(TRANSFORM hello (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.09899999999999437</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.2010918779913348</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.7085605790053421</t>
+  </si>
+  <si>
+    <t>(TRANSFORM hello (INPUTS ((Population 2) (Electronics 4) (Metallic Alloys 6))(OUTPUTS (Population 2) (Electronics2) (Metallic Alloys 4) (Telecommunications 3) (TelecommunicationsWaste 1))) EU: 0.09259819278162994</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.18393414850775172</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2475</t>
+  </si>
+  <si>
+    <t>(TRANSFORM hello (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15490180721837007</t>
   </si>
 </sst>
 </file>
@@ -510,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -518,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -526,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -534,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -542,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -550,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/output_data3.xlsx
+++ b/data/output_data3.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Turn #1: Foremz: </t>
   </si>
   <si>
-    <t xml:space="preserve">Turn #1: hello: </t>
+    <t xml:space="preserve">Turn #1: Hello: </t>
   </si>
   <si>
     <t xml:space="preserve">Turn #2: Brobdingnag: </t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Turn #2: Foremz: </t>
   </si>
   <si>
-    <t xml:space="preserve">Turn #2: hello: </t>
+    <t xml:space="preserve">Turn #2: Hello: </t>
   </si>
   <si>
     <t xml:space="preserve">Turn #3: Brobdingnag: </t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Turn #3: Foremz: </t>
   </si>
   <si>
-    <t xml:space="preserve">Turn #3: hello: </t>
+    <t xml:space="preserve">Turn #3: Hello: </t>
   </si>
   <si>
     <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.2204656796309895</t>
@@ -64,25 +64,25 @@
     <t>(PASSES Foremz )</t>
   </si>
   <si>
-    <t>(TRANSFORM hello (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.09899999999999437</t>
+    <t>(TRANSFORM Hello (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376973</t>
   </si>
   <si>
     <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.2010918779913348</t>
   </si>
   <si>
-    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.7085605790053421</t>
-  </si>
-  <si>
-    <t>(TRANSFORM hello (INPUTS ((Population 2) (Electronics 4) (Metallic Alloys 6))(OUTPUTS (Population 2) (Electronics2) (Metallic Alloys 4) (Telecommunications 3) (TelecommunicationsWaste 1))) EU: 0.09259819278162994</t>
+    <t>(DISASTER Erewhon (Earthquake)) (TRANSFORM Erewhon (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -2.0130409724967318</t>
+  </si>
+  <si>
+    <t>(DISASTER Hello (Fire)) (TRANSFORM Hello (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.16863274528787145</t>
   </si>
   <si>
     <t>(TRANSFORM Brobdingnag (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.18393414850775172</t>
   </si>
   <si>
-    <t>(TRANSFORM Erewhon (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2475</t>
-  </si>
-  <si>
-    <t>(TRANSFORM hello (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15490180721837007</t>
+    <t>(DISASTER Erewhon (Tornado)) (PASSES Erewhon )</t>
+  </si>
+  <si>
+    <t>(TRANSFORM Hello (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.19193310620438808</t>
   </si>
 </sst>
 </file>
